--- a/docs/00_Tools/07_07_DE_Use_Case_Tool.xlsx
+++ b/docs/00_Tools/07_07_DE_Use_Case_Tool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\OneDrive - UT Cloud\Toolkit\Übersetzung\Tools\07_Evaluation_Check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\OneDrive - UT Cloud\Github\Lernraum-Toolkit.github.io\docs\00_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Use Case Tool* | learningspacetoolkit.org</t>
   </si>
@@ -142,13 +142,16 @@
   </si>
   <si>
     <t>Arbeitsplätze und Arbeitsflächen, die Gruppenarbeit ermöglichen</t>
+  </si>
+  <si>
+    <t>Übersetzung: Katharina Zinke, Universitätsbibliothek Tübingen; lizenziert unter CC BY 4.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -213,6 +216,16 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -252,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -291,6 +304,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -306,7 +320,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -590,239 +609,233 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="25.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="10" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="11" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="63.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -832,7 +845,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -843,7 +856,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -854,7 +867,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -865,7 +878,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -876,7 +889,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -887,7 +900,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -898,7 +911,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -909,7 +922,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -920,7 +933,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -931,7 +944,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -942,7 +955,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -953,7 +966,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -964,7 +977,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -975,7 +988,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -986,7 +999,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -997,7 +1010,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1008,7 +1021,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1019,7 +1032,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1030,7 +1043,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1041,7 +1054,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1052,7 +1065,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1063,7 +1076,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1074,7 +1087,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1085,7 +1098,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1096,7 +1109,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1107,7 +1120,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1118,7 +1131,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1129,7 +1142,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1140,7 +1153,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1151,7 +1164,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1162,7 +1175,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1173,7 +1186,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1184,7 +1197,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1195,7 +1208,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1206,7 +1219,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1217,7 +1230,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1228,7 +1241,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1239,7 +1252,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1250,7 +1263,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1261,7 +1274,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1272,7 +1285,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1283,7 +1296,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1294,7 +1307,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1305,7 +1318,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1316,7 +1329,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1327,7 +1340,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1338,7 +1351,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1349,7 +1362,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1360,7 +1373,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1371,7 +1384,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1382,7 +1395,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1393,7 +1406,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1404,7 +1417,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1415,7 +1428,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1426,7 +1439,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1437,7 +1450,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1448,7 +1461,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1459,7 +1472,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1470,7 +1483,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1481,7 +1494,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1492,7 +1505,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1503,7 +1516,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1514,7 +1527,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1525,7 +1538,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1536,7 +1549,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1547,7 +1560,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1558,7 +1571,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1569,7 +1582,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1580,7 +1593,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1591,7 +1604,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1602,7 +1615,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1613,7 +1626,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1624,7 +1637,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1635,7 +1648,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1646,7 +1659,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1657,7 +1670,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1668,7 +1681,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1679,7 +1692,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1690,7 +1703,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1701,7 +1714,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1712,7 +1725,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1723,7 +1736,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1734,7 +1747,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1745,7 +1758,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1756,7 +1769,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1767,7 +1780,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1778,7 +1791,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1789,7 +1802,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1800,13 +1813,24 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
+    <row r="102" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
